--- a/src/main/resources/testdata/testdata.xlsx
+++ b/src/main/resources/testdata/testdata.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BaiduYunDownload\Java全栈自动化6期\day38\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baojie.chang/idea-workspace/autotest/src/main/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="7815" windowWidth="14610" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" windowHeight="13320" windowWidth="20600" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="api_info" r:id="rId1" sheetId="1"/>
@@ -19,12 +19,20 @@
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">request_data!$A$1:$F$12</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>ApiId(接口编号)</t>
   </si>
@@ -223,6 +231,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"status":0,"code":"20103</t>
@@ -232,6 +241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","data":null,"msg":"密码不能为空"}</t>
@@ -249,6 +259,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"status":"0</t>
@@ -258,6 +269,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>","code":"</t>
@@ -267,6 +279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>20103</t>
@@ -276,6 +289,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>",data:null,"msg":"手机号不能为空"}</t>
@@ -299,6 +313,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>{"status":"0","code":"20111</t>
@@ -308,6 +323,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>",data:null,"msg":"用户名或者密码错误"}</t>
@@ -331,11 +347,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -719,20 +737,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="14" width="17.25" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="15" width="22.125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="14" width="17.75" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="14" width="17.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="15" width="22.1640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="17.6640625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="15" width="73.5" collapsed="true"/>
     <col min="5" max="16384" style="16" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="28.15" r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row customHeight="1" ht="28.25" r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -939,20 +957,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="C3" sqref="A1:I12"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="2" width="16.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="2" width="17.625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="57.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="17.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="57.33203125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="3" width="50.0" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" style="4" width="31.75" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="31.75" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="31.75" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="31.75" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" style="4" width="31.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="31.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="31.6640625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="31.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="18" r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -984,7 +1002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row ht="54" r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="42" r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -1009,7 +1027,7 @@
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row ht="54" r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="42" r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1050,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row ht="27" r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1053,7 +1071,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row ht="27" r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1066,9 +1084,7 @@
       <c r="D5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
         <v>45</v>
       </c>
@@ -1082,7 +1098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row ht="27" r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1101,7 +1117,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row ht="27" r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1120,7 +1136,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row ht="27" r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -1139,7 +1155,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row ht="27" r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -1158,7 +1174,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row ht="27" r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -1177,7 +1193,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="8"/>
     </row>
-    <row ht="27" r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -1196,7 +1212,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row ht="27" r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1238,20 +1254,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="17.625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="57.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="57.33203125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="50.0" collapsed="true"/>
-    <col min="5" max="8" customWidth="true" width="31.75" collapsed="true"/>
+    <col min="5" max="8" customWidth="true" width="31.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="27" r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
@@ -1270,7 +1286,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row ht="27" r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -1289,7 +1305,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="8"/>
     </row>
-    <row ht="27" r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1308,7 +1324,7 @@
       <c r="H3" s="9"/>
       <c r="I3" s="8"/>
     </row>
-    <row ht="27" r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1329,7 +1345,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row ht="27" r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1348,7 +1364,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row ht="27" r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1367,7 +1383,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row ht="27" r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1386,7 +1402,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row ht="27" r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
@@ -1405,7 +1421,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row ht="27" r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
@@ -1424,7 +1440,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row ht="27" r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>65</v>
       </c>
@@ -1443,7 +1459,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="8"/>
     </row>
-    <row ht="27" r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -1462,7 +1478,7 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row ht="27" r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row ht="28" r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
